--- a/data/data0.xlsx
+++ b/data/data0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D246B8-6BB5-410C-99AA-F7788A836E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046839D6-B6BE-4372-93ED-60159D5EF9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="1305" windowWidth="14415" windowHeight="9075" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>

--- a/data/data0.xlsx
+++ b/data/data0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046839D6-B6BE-4372-93ED-60159D5EF9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C245944-4662-4180-914F-A5EEE0E01F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="30900" yWindow="6030" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정반배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,20 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,13 +490,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -518,13 +510,10 @@
       <c r="F2" s="2">
         <v>45337</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>90</v>
@@ -541,13 +530,10 @@
       <c r="F3" s="2">
         <v>45336</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -564,13 +550,10 @@
       <c r="F4" s="2">
         <v>45335</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>120</v>
@@ -587,13 +570,10 @@
       <c r="F5" s="2">
         <v>45334</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -610,13 +590,10 @@
       <c r="F6" s="2">
         <v>45342</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -633,13 +610,10 @@
       <c r="F7" s="2">
         <v>45344</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -655,9 +629,6 @@
       </c>
       <c r="F8" s="2">
         <v>45348</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -681,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -695,7 +666,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
